--- a/biology/Zoologie/Ischyropsalis_robusta/Ischyropsalis_robusta.xlsx
+++ b/biology/Zoologie/Ischyropsalis_robusta/Ischyropsalis_robusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis robusta est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Portugal[1]. Elle se rencontre de Braga à Lisbonne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Portugal. Elle se rencontre de Braga à Lisbonne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syntype mesure 6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syntype mesure 6 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1872.
-Ischyropsalis lusitanica[3] a été placée en synonymie par Martens en 1969[4].
+Ischyropsalis lusitanica a été placée en synonymie par Martens en 1969.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1872 : « Notices sur les arachnides cavernicoles et hypogés. » Annales de la Société Entomologique de France, sér. 5, vol. 2, p. 214–244 (texte intégral).</t>
         </is>
